--- a/biology/Zoologie/Conus_peli/Conus_peli.xlsx
+++ b/biology/Zoologie/Conus_peli/Conus_peli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus peli est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 64 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Oman.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite n'est connue que par quelques spécimens tout au plus. S'il s'agit d'une espèce valide, elle serait endémique à Oman, en particulier dans les eaux au large de l'île de Masirah. Son statut taxonomique est douteux et il n'est connu que par quelques spécimens. S'il s'avère qu'il s'agit d'une espèce valide, son statut restreint pourrait la rendre susceptible d'être affectée par des menaces communes telles que la pollution, mais cela ne peut pas être vérifié car on en sait très peu sur cette espèce[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce récemment décrite n'est connue que par quelques spécimens tout au plus. S'il s'agit d'une espèce valide, elle serait endémique à Oman, en particulier dans les eaux au large de l'île de Masirah. Son statut taxonomique est douteux et il n'est connu que par quelques spécimens. S'il s'avère qu'il s'agit d'une espèce valide, son statut restreint pourrait la rendre susceptible d'être affectée par des menaces communes telles que la pollution, mais cela ne peut pas être vérifié car on en sait très peu sur cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_peli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_peli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus peli a été décrite pour la première fois en 1996 par le malacologiste Robert G. Moolenbeek (d)[2] dans « World Shells »[3],[4].
-Synonymes
-Conus (Rhizoconus) peli Moolenbeek, 1996 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus peli a été décrite pour la première fois en 1996 par le malacologiste Robert G. Moolenbeek (d) dans « World Shells »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_peli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_peli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Rhizoconus) peli Moolenbeek, 1996 · appellation alternative
 Rhizoconus peli (Moolenbeek, 1996) · non accepté</t>
         </is>
       </c>
